--- a/data/new_data_raw_4_.xlsx
+++ b/data/new_data_raw_4_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Sporting CP</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Porto</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(İY 0 - 0)</t>
+          <t>(İY 1 - 0)</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17-12-23 | Premier Lig | 17. Hafta | Stat: Anfield (57158)</t>
+          <t>18-12-23 | Primeira Liga | 14. Hafta | Stat: Estádio José Alvalade (44385)</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAÇ SONUCU 14372 MBS 1</t>
+          <t>MAÇ SONUCU 46950 MBS 1</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.98</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>2.82</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ÇIFTE ŞANS 14374 MBS 1</t>
+          <t>ÇIFTE ŞANS 46953 MBS 1</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.17</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.41</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1,5 ALT/ÜST 14447 MBS 1</t>
+          <t>2,5 ALT/ÜST 46986 MBS 1</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.69</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4,5 ALT/ÜST 14470 MBS 1</t>
+          <t>4,5 ALT/ÜST 46997 MBS 1</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>5.36</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2,5 ALT/ÜST 14464 MBS 1</t>
+          <t>1,5 ALT/ÜST 46981 MBS 1</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.14</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3,5 ALT/ÜST 14467 MBS 1</t>
+          <t>0,5 ALT/ÜST 46978 MBS 1</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>8.09</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5,5 ALT/ÜST 14500 MBS 1</t>
+          <t>3,5 ALT/ÜST 46996 MBS 1</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.19</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>2.82</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. YARI 1,5 ALT/ÜST 14588 MBS 1</t>
+          <t>1. YARI 0,5 ALT/ÜST 47002 MBS 1</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.55</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. YARI 0,5 ALT/ÜST 14586 MBS 1</t>
+          <t>1. YARI 1,5 ALT/ÜST 47003 MBS 1</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>1.26</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1. YARI 2,5 ALT/ÜST 14590 MBS 1</t>
+          <t>1. YARI 2,5 ALT/ÜST 47004 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>6.03</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1. YARI ÇIFTE ŞANS 14574 MBS 1</t>
+          <t>1. YARI ÇIFTE ŞANS 47001 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.11</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.23</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. YARI SONUCU 14572 MBS 1</t>
+          <t>1. YARI SONUCU 47000 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.90</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2. YARI SONUCU 14596 MBS 1</t>
+          <t>2. YARI SONUCU 47006 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.31</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>3.02</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TEK/ÇIFT 14632 MBS 1</t>
+          <t>TEK/ÇIFT 47157 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.74</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TOPLAM GOL ARALIĞI 14559 MBS 1</t>
+          <t>TOPLAM GOL ARALIĞI 46999 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>14.35</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KARŞILIKLI GOL 14523 MBS 1</t>
+          <t>KARŞILIKLI GOL 46998 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.51</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.82</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>İLK YARI/MAÇ SONUCU 14591 MBS 1</t>
+          <t>İLK YARI/MAÇ SONUCU 47005 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.06</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.88</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>26.50</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>19.50</t>
+          <t>12.55</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>4.42</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>19.15</t>
+          <t>12.85</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>33.50</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>4.65</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HND. MS (0:3) 01016 MBS 1</t>
+          <t>HND. MS (0:1) 46964 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.72</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>+3h</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HND. MS (0:2) 14376 MBS 1</t>
+          <t>HND. MS (1:0) 46968 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.34</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>+2h</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>6.12</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>HND. MS (0:1) 14378 MBS 1</t>
+          <t>HND. MS (0:2) 46963 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>8.41</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.51</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>+2h</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.07</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>HND. MS (1:0) 14381 MBS 1</t>
+          <t>MAÇ SKORU 47046 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>0-0</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.70</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>8.31</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0-2</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>14.35</t>
+          <t>13.75</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MAÇ SKORU 14597 MBS 1</t>
+          <t>0-3</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>0-0</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>0-4</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>110.00</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>0-5</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>1-0</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>6.70</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>1-1</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>4.93</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>9.25</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>1-3</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1-0</t>
+          <t>22.60</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>1-4</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>75.00</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1-5</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2-0</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>8.87</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>2-1</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>7.44</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>2-2</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>10.70</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>2-3</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2-0</t>
+          <t>30.50</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>2-4</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>100.00</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>0-6</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>3-0</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>17.55</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>3-1</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>14.70</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>3-2</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>24.30</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>3-3</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>3-0</t>
+          <t>53.00</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>4-0</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>47.00</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>4-1</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>39.00</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>4-2</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>3-3</t>
+          <t>65.00</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>54.00</t>
+          <t>5-0</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>4-0</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>5-1</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>6-0</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>26.50</t>
+          <t>Diğer</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>5-0</t>
+          <t>32.00</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>İLK GOL 46970 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>5-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>24.70</t>
+          <t>1.53</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>6-0</t>
+          <t>Olmaz</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>9.26</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Diğer</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>1.84</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>İLK GOL 14384 MBS 1</t>
+          <t>MS VE 2,5 ALT/ÜST 46972 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.68</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Olmaz</t>
+          <t>X ve Alt</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>23.15</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>6.36</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MS VE 3,5 ALT/ÜST 14408 MBS 1</t>
+          <t>1 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>X ve Üst</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>10.75</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>2 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>4.72</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>MS VE 3,5 ALT/ÜST 46973 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>1 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>X ve Alt</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>3.82</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>2 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>19.50</t>
+          <t>3.73</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>MS VE 4,5 ALT/ÜST 14433 MBS 1</t>
+          <t>1 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>X ve Üst</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>10.70</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>2 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>9.89</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>MS VE 4,5 ALT/ÜST 46974 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>1 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>X ve Alt</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>2 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MS VE 2,5 ALT/ÜST 14396 MBS 1</t>
+          <t>1 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>10.60</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>X ve Üst</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>2 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>16.90</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>19.25</t>
+          <t>MS VE 1,5 ALT/ÜST 46971 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>1 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>8.10</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>X ve Alt</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>10.55</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>2 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>10.10</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MS VE 1,5 ALT/ÜST 14392 MBS 1</t>
+          <t>1 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>X ve Üst</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>3.84</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>2 ve Üst</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>3.70</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>1. YARI EN ÇOK KORNER 03497 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.61</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>4.94</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>1. YARI EN ÇOK KORNER 04248 MBS 1</t>
+          <t>1. YARI KORNER ARALIĞI 03512 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0-4</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.83</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>5-6</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>2.90</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7+</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>1. YARI KORNER ARALIĞI 04280 MBS 1</t>
+          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 47166 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7+</t>
+          <t>12+</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 14651 MBS 1</t>
+          <t>TOPLAM KORNER ARALIĞI 00311 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>0-8</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>9-11</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.65</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.27</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TOPLAM KORNER ARALIĞI 04243 MBS 1</t>
+          <t>EN ÇOK KORNER 03507 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>7.12</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>EN ÇOK KORNER 04278 MBS 1</t>
+          <t>1.YARI 4,5 KORNER ALT/ÜST 03505 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.82</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>1.56</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>EV SAHIBI 2,5 A/Ü 47073 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>1.YARI 4,5 KORNER ALT/ÜST 04250 MBS 1</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.09</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>EV SAHIBI 0,5 A/Ü 47071 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>EV SAHIBI 2,5 A/Ü 14610 MBS 1</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>EV SAHIBI 1,5 A/Ü 47072 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>EV SAHIBI 1,5 A/Ü 14603 MBS 1</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.91</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>EN ÇOK GOL OLACAK YARI 47151 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1. Yarı</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>EV SAHIBI 3,5 A/Ü 14613 MBS 1</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Eşit</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.10</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>2. Yarı</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>EN ÇOK GOL OLACAK YARI 14620 MBS 1</t>
+          <t>DEPLASMAN 2,5 A/Ü 47148 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>1. Yarı</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Eşit</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.89</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2. Yarı</t>
+          <t>DEPLASMAN 1,5 A/Ü 47147 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>DEPLASMAN 2,5 A/Ü 14617 MBS 1</t>
+          <t>1.28</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>DEPLASMAN 0,5 A/Ü 47074 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>DEPLASMAN 0,5 A/Ü 14615 MBS 1</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>İLK KORNER 03511 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>DEPLASMAN 1,5 A/Ü 14616 MBS 1</t>
+          <t>1.48</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Olmaz</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>26.50</t>
         </is>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.91</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>İLK KORNER 04276 MBS 1</t>
+          <t>1. YARI KARŞILIKLI GOL 47164 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Olmaz</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>26.50</t>
+          <t>1.07</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>EV SAHIBI İKI YARIYI DA KAZANIR 47155 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>Evet</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>EV SAHIBI İKI YARIYI DA KAZANIR 14628 MBS 1</t>
+          <t>5.96</t>
         </is>
       </c>
     </row>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Evet</t>
+          <t>Hayır</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Hayır</t>
+          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 47165 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>1. YARI KARŞILIKLI GOL 14649 MBS 1</t>
+          <t>1.60</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>DEPLASMAN İKI YARIYI DA KAZANIR 47156 MBS 1</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>Evet</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 14650 MBS 1</t>
+          <t>8.89</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Hayır</t>
         </is>
       </c>
     </row>
@@ -4064,77 +4064,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>1. YARI EV SAHIBI 1,5 ALT/ÜST 00512 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>2.55</t>
+          <t>-</t>
         </is>
       </c>
     </row>
